--- a/ExcelReaderScript/Nightlys/Testcase_1_date.xlsx
+++ b/ExcelReaderScript/Nightlys/Testcase_1_date.xlsx
@@ -117,13 +117,13 @@
     <t>[Phone]</t>
   </si>
   <si>
-    <t>testbench</t>
-  </si>
-  <si>
     <t>SYS-110.tbc</t>
   </si>
   <si>
     <t>SYS-112.tbc</t>
+  </si>
+  <si>
+    <t>tbc</t>
   </si>
 </sst>
 </file>
@@ -490,7 +490,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,6 +505,7 @@
     <col min="9" max="9" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.140625" customWidth="1"/>
+    <col min="12" max="12" width="27.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -539,7 +540,7 @@
         <v>9</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -574,7 +575,7 @@
         <v>6</v>
       </c>
       <c r="L2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -609,7 +610,7 @@
         <v>6</v>
       </c>
       <c r="L3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -644,7 +645,7 @@
         <v>6</v>
       </c>
       <c r="L4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -679,7 +680,7 @@
         <v>6</v>
       </c>
       <c r="L5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -714,7 +715,7 @@
         <v>6</v>
       </c>
       <c r="L6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -749,7 +750,7 @@
         <v>6</v>
       </c>
       <c r="L7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -784,7 +785,7 @@
         <v>6</v>
       </c>
       <c r="L8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -819,7 +820,7 @@
         <v>6</v>
       </c>
       <c r="L9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -854,7 +855,7 @@
         <v>6</v>
       </c>
       <c r="L10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -889,7 +890,7 @@
         <v>6</v>
       </c>
       <c r="L11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -924,7 +925,7 @@
         <v>6</v>
       </c>
       <c r="L12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -959,7 +960,7 @@
         <v>6</v>
       </c>
       <c r="L13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -994,7 +995,7 @@
         <v>6</v>
       </c>
       <c r="L14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1038,7 +1039,7 @@
         <v>6</v>
       </c>
       <c r="L16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1073,7 +1074,7 @@
         <v>6</v>
       </c>
       <c r="L17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1105,7 +1106,7 @@
         <v>6</v>
       </c>
       <c r="L18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1137,7 +1138,7 @@
         <v>6</v>
       </c>
       <c r="L19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -1169,7 +1170,7 @@
         <v>6</v>
       </c>
       <c r="L20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
